--- a/source/PDMP Years.xlsx
+++ b/source/PDMP Years.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omair.khan\Documents\GitHub\final-project-chris-and-omair\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christopher.au\Documents\GitHub\final-project-chris-and-omair\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,10 +785,16 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>1992</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2014</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">

--- a/source/PDMP Years.xlsx
+++ b/source/PDMP Years.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>AK</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>1979 operational</t>
+  </si>
+  <si>
+    <t>2017 amendment --&gt; must check PDMP before dispense</t>
   </si>
 </sst>
 </file>
@@ -529,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,6 +918,9 @@
       <c r="B45">
         <v>1982</v>
       </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
